--- a/data/trans_bre/CONS_REC-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_REC-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>88,5%</t>
+          <t>102,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>185,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>109,96%</t>
+          <t>93,89%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 8,43</t>
+          <t>1,79; 8,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,23</t>
+          <t>2,67; 8,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,67</t>
+          <t>1,56; 7,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,03; 192,38</t>
+          <t>20,28; 266,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,52; 192,9</t>
+          <t>39,9; 502,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,48; 247,61</t>
+          <t>19,32; 197,34</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>129,48%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>143,57%</t>
+          <t>173,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>170,89%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,8</t>
+          <t>3,31; 6,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,37</t>
+          <t>0,78; 3,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 5,66</t>
+          <t>2,21; 4,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>57,85; 239,4</t>
+          <t>54,94; 148,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>69,26; 261,08</t>
+          <t>47,78; 427,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,09; 145,87</t>
+          <t>84,78; 318,07</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>156,86%</t>
+          <t>161,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>153,6%</t>
+          <t>116,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>198,78%</t>
+          <t>190,86%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 6,99</t>
+          <t>2,09; 6,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,62</t>
+          <t>0,29; 5,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,01</t>
+          <t>2,64; 7,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>43,87; 331,63</t>
+          <t>54,98; 336,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,72; 415,54</t>
+          <t>-5,91; 394,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>88,35; 391,68</t>
+          <t>70,43; 451,51</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>125,65%</t>
+          <t>100,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>141,26%</t>
+          <t>177,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>103,3%</t>
+          <t>159,36%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,26</t>
+          <t>3,42; 5,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,75</t>
+          <t>1,62; 4,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 4,96</t>
+          <t>2,98; 5,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,99; 185,82</t>
+          <t>65,68; 139,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,89; 214,73</t>
+          <t>76,93; 345,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>70,23; 142,74</t>
+          <t>95,5; 244,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_REC-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_REC-Estudios-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>102,71%</t>
+          <t>143,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 8,12</t>
+          <t>2,78; 8,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 8,63</t>
+          <t>2,58; 8,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,28; 266,81</t>
+          <t>48,04; 301,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,9; 502,35</t>
+          <t>46,62; 494,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>104,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,57</t>
+          <t>3,35; 6,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,94</t>
+          <t>0,68; 3,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>54,94; 148,52</t>
+          <t>64,74; 158,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,78; 427,58</t>
+          <t>43,33; 422,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>161,89%</t>
+          <t>134,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 6,04</t>
+          <t>1,56; 5,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 5,0</t>
+          <t>0,22; 4,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>54,98; 336,24</t>
+          <t>46,26; 319,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 394,91</t>
+          <t>-7,49; 369,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>100,89%</t>
+          <t>109,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 5,69</t>
+          <t>3,3; 5,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,33</t>
+          <t>1,65; 4,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>65,68; 139,29</t>
+          <t>75,02; 153,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>76,93; 345,34</t>
+          <t>77,91; 346,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_REC-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_REC-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5,61</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>5,51</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,6</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,6</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>201,81%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>93,89%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>143,1%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>185,61%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>93,89%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>2,69; 8,32</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 7,51</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>2,78; 8,16</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 8,36</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 7,51</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>49,32; 521,95</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19,32; 197,34</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>48,04; 301,72</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>46,62; 494,81</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>19,32; 197,34</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>4,68</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,49</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>125,12%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>170,89%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>104,36%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>173,74%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>170,89%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1,25; 3,89</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 4,93</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>3,35; 6,17</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,68; 3,87</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 4,93</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>38,12; 266,87</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>84,78; 318,07</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>64,74; 158,49</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>43,33; 422,51</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>84,78; 318,07</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,05</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,95</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>3,3</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,61</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,95</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>151,07%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>190,86%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>134,62%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>116,75%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>190,86%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,73; 5,23</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2,64; 7,79</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1,56; 5,08</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 4,98</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,64; 7,79</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>14,46; 447,39</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>70,43; 451,51</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>46,26; 319,55</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-7,49; 369,56</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>70,43; 451,51</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,31</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4,16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>4,3</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,13</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,16</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>156,39%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>159,36%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>109,78%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>177,66%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>159,36%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,25; 4,35</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2,98; 5,32</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>3,3; 5,32</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 4,36</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,98; 5,32</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>79,17; 266,49</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>95,5; 244,0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>75,02; 153,75</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>77,91; 346,97</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>95,5; 244,0</t>
         </is>
       </c>
     </row>
